--- a/Classwork Excel_SS_JT-2.xlsx
+++ b/Classwork Excel_SS_JT-2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 Corporate Training\Six Sigma JT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BFD7C4-ACB3-4E7F-A58B-836A2C8BD19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D549E8-7E31-455F-9039-A28C68AD3EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{112797AB-B162-4C1F-9432-D0A301332D8E}"/>
   </bookViews>
   <sheets>
     <sheet name="PERT-CPM-1" sheetId="1" r:id="rId1"/>
+    <sheet name="PERT-CPM-2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Activity</t>
   </si>
@@ -117,6 +118,30 @@
   </si>
   <si>
     <t>PROBABILITY</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Estimated Durations</t>
+  </si>
+  <si>
+    <t>PERT-Copy</t>
+  </si>
+  <si>
+    <t>PERT_Round</t>
+  </si>
+  <si>
+    <t>PERT-Ceil</t>
+  </si>
+  <si>
+    <t>PERT-Floor</t>
+  </si>
+  <si>
+    <t>Variance</t>
   </si>
 </sst>
 </file>
@@ -151,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -178,6 +203,21 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -433,85 +473,264 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -522,11 +741,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -544,33 +763,33 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -585,6 +804,310 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>55933</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485279</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>46917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF29A7B9-9092-E247-8213-FC5B58F0AEDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7606083" y="215900"/>
+          <a:ext cx="2867746" cy="4091867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>489869</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>59607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CD503E-E02D-286A-FD08-1AF0A157D715}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="4422747"/>
+          <a:ext cx="7201819" cy="2291660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>148198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>508110</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BA2BF2-CE7E-8925-12F0-62029AA6A2EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3270250" y="6802998"/>
+          <a:ext cx="7226410" cy="1775852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>163512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>522816</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A9FE6C9-FEC1-2295-EFCE-6110B0469E2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="8666162"/>
+          <a:ext cx="7234766" cy="2713037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>112842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>11088</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>78512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F1ADBE-54AC-109A-D469-708DDC4378E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7105650" y="112842"/>
+          <a:ext cx="4786288" cy="2562820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>107951</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>8151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>110873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D59F40C-D877-8D4C-9F5C-5BF031F5434B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7112001" y="2770401"/>
+          <a:ext cx="4787900" cy="2496672"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -887,7 +1410,7 @@
   <dimension ref="B1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -920,10 +1443,10 @@
       <c r="F3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="44" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -951,11 +1474,11 @@
         <f>(C4+4*D4+E4)/6</f>
         <v>0</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="41">
         <f>((E4-C4)/6)^2</f>
         <v>0</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="45" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -983,11 +1506,11 @@
         <f t="shared" ref="F5:F19" si="0">(C5+4*D5+E5)/6</f>
         <v>2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="42">
         <f t="shared" ref="G5:G19" si="1">((E5-C5)/6)^2</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -1014,11 +1537,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="46" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -1046,11 +1569,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="42">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="1">
@@ -1075,11 +1598,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="16" t="s">
@@ -1098,11 +1621,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="42">
         <f t="shared" si="1"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="46" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1123,11 +1646,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="46" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1148,11 +1671,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="16" t="s">
@@ -1171,11 +1694,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="42">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
@@ -1194,11 +1717,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H13" s="23"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
@@ -1217,11 +1740,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="46" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1242,11 +1765,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="23"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16" s="16" t="s">
@@ -1265,11 +1788,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="46" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1290,11 +1813,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="42">
         <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="16" t="s">
@@ -1313,11 +1836,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="42">
         <f t="shared" si="1"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="46" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1338,11 +1861,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="47" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1351,11 +1874,519 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:H19">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$H4="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79699588-1064-4D82-8A00-8511AFC56299}">
+  <dimension ref="B1:K15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="F4" s="37">
+        <f>(C4+4*D4+E4)/6</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32">
+        <f>ROUND(G4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
+        <f>CEILING(G4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="20">
+        <f>FLOOR(G4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="34">
+        <f>((E4-C4)/6)^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="22">
+        <v>2</v>
+      </c>
+      <c r="E5" s="23">
+        <v>15</v>
+      </c>
+      <c r="F5" s="38">
+        <f t="shared" ref="F5:F15" si="0">(C5+4*D5+E5)/6</f>
+        <v>4.083333333333333</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.083333333333333</v>
+      </c>
+      <c r="H5" s="30">
+        <f t="shared" ref="H5:H15" si="1">ROUND(G5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" ref="I5:I15" si="2">CEILING(G5,1)</f>
+        <v>5</v>
+      </c>
+      <c r="J5" s="23">
+        <f t="shared" ref="J5:J15" si="3">FLOOR(G5,1)</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="35">
+        <f t="shared" ref="K5:K15" si="4">((E5-C5)/6)^2</f>
+        <v>5.0625</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21">
+        <v>2</v>
+      </c>
+      <c r="D6" s="22">
+        <v>3.5</v>
+      </c>
+      <c r="E6" s="23">
+        <v>21</v>
+      </c>
+      <c r="F6" s="38">
+        <f t="shared" si="0"/>
+        <v>6.166666666666667</v>
+      </c>
+      <c r="G6" s="3">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="H6" s="30">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J6" s="23">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K6" s="35">
+        <f t="shared" si="4"/>
+        <v>10.027777777777777</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="23">
+        <v>18</v>
+      </c>
+      <c r="F7" s="38">
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="H7" s="30">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I7" s="22">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J7" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" si="4"/>
+        <v>8.0277777777777786</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="22">
+        <v>1</v>
+      </c>
+      <c r="E8" s="23">
+        <v>15</v>
+      </c>
+      <c r="F8" s="38">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="H8" s="30">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="23">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="4"/>
+        <v>5.8402777777777768</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21">
+        <v>3</v>
+      </c>
+      <c r="D9" s="22">
+        <v>5</v>
+      </c>
+      <c r="E9" s="23">
+        <v>24</v>
+      </c>
+      <c r="F9" s="38">
+        <f t="shared" si="0"/>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7.833333333333333</v>
+      </c>
+      <c r="H9" s="30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I9" s="22">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J9" s="23">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="4"/>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22">
+        <v>2</v>
+      </c>
+      <c r="E10" s="23">
+        <v>16</v>
+      </c>
+      <c r="F10" s="38">
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="H10" s="30">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I10" s="22">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J10" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K10" s="35">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="22">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23">
+        <v>14</v>
+      </c>
+      <c r="F11" s="38">
+        <f t="shared" si="0"/>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="H11" s="30">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="22">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J11" s="23">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K11" s="35">
+        <f t="shared" si="4"/>
+        <v>5.0625</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="D12" s="22">
+        <v>3.5</v>
+      </c>
+      <c r="E12" s="23">
+        <v>25</v>
+      </c>
+      <c r="F12" s="38">
+        <f t="shared" si="0"/>
+        <v>6.916666666666667</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6.916666666666667</v>
+      </c>
+      <c r="H12" s="30">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I12" s="22">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J12" s="23">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K12" s="35">
+        <f t="shared" si="4"/>
+        <v>14.0625</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22">
+        <v>3</v>
+      </c>
+      <c r="E13" s="23">
+        <v>18</v>
+      </c>
+      <c r="F13" s="38">
+        <f t="shared" si="0"/>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="H13" s="30">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I13" s="22">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J13" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K13" s="35">
+        <f t="shared" si="4"/>
+        <v>8.0277777777777786</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="21">
+        <v>2</v>
+      </c>
+      <c r="D14" s="22">
+        <v>3</v>
+      </c>
+      <c r="E14" s="23">
+        <v>18</v>
+      </c>
+      <c r="F14" s="38">
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="H14" s="30">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I14" s="22">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J14" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K14" s="35">
+        <f t="shared" si="4"/>
+        <v>7.1111111111111107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0</v>
+      </c>
+      <c r="F15" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Classwork Excel_SS_JT-2.xlsx
+++ b/Classwork Excel_SS_JT-2.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 Corporate Training\Six Sigma JT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D549E8-7E31-455F-9039-A28C68AD3EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAFE54F-5676-4BC9-A692-8AF2A058F50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{112797AB-B162-4C1F-9432-D0A301332D8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{112797AB-B162-4C1F-9432-D0A301332D8E}"/>
   </bookViews>
   <sheets>
     <sheet name="PERT-CPM-1" sheetId="1" r:id="rId1"/>
     <sheet name="PERT-CPM-2" sheetId="2" r:id="rId2"/>
+    <sheet name="Correlation &amp; Regression-1" sheetId="3" r:id="rId3"/>
+    <sheet name="Correlation &amp; Regression-2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
   <si>
     <t>Activity</t>
   </si>
@@ -142,6 +144,123 @@
   </si>
   <si>
     <t>Variance</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x*y</t>
+  </si>
+  <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>y^2</t>
+  </si>
+  <si>
+    <t>n =</t>
+  </si>
+  <si>
+    <t>r =</t>
+  </si>
+  <si>
+    <t>a =</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>b =</t>
+  </si>
+  <si>
+    <t>y'</t>
+  </si>
+  <si>
+    <t>r^2 =</t>
+  </si>
+  <si>
+    <t>GPA x1</t>
+  </si>
+  <si>
+    <t>Age x2</t>
+  </si>
+  <si>
+    <t>State Board Score y</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
   </si>
 </sst>
 </file>
@@ -149,9 +268,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +286,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,7 +303,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -616,18 +743,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -641,15 +788,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -709,18 +847,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -733,55 +871,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -804,6 +922,2568 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Students' Absent Count Vs. Exam Marks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X vs. Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression-1'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression-1'!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BFA-4104-A294-FD0C17FE0D0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test Data Point-1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression-1'!$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression-1'!$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>62.651741293532332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6BFA-4104-A294-FD0C17FE0D0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Test Data Point-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression-1'!$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression-1'!$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>77.139303482587053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6BFA-4104-A294-FD0C17FE0D0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Test Data Point-3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression-1'!$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression-1'!$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>51.786069651741286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6BFA-4104-A294-FD0C17FE0D0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1156653968"/>
+        <c:axId val="1156649808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1156653968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Students' Absent Count in Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156649808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1156649808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Final Exam Marks Out of 100</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156653968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="002060"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Students' Absent Count Vs. Exam Marks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X vs. Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.48933453725529691"/>
+                  <c:y val="-0.49627996605642999"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression-1'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression-1'!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F3F6-4E54-B211-A5681EA0C1A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test Data Point-1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression-1'!$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression-1'!$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>62.651741293532332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F3F6-4E54-B211-A5681EA0C1A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Test Data Point-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression-1'!$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression-1'!$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>77.139303482587053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F3F6-4E54-B211-A5681EA0C1A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Test Data Point-3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression-1'!$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Correlation &amp; Regression-1'!$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>51.786069651741286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F3F6-4E54-B211-A5681EA0C1A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1156653968"/>
+        <c:axId val="1156649808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1156653968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Students' Absent Count in Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156649808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1156649808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Final Exam Marks Out of 100</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156653968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66969679161949369"/>
+          <c:y val="0.27107217303267667"/>
+          <c:w val="0.31172256019873978"/>
+          <c:h val="0.70071839800346913"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="002060"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1110,6 +3790,232 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>532631</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53FE7550-7EAC-FBBD-5697-9388E9B38703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="198855"/>
+          <a:ext cx="2590031" cy="416970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144096</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>595923</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0604E6D-2C56-5523-BD52-06DB7875A023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>43962</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600291</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D203269-BBD6-746E-1D9E-951E341B202D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3096847" y="1924538"/>
+          <a:ext cx="1166906" cy="249115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>48846</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600807</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>141654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87274A15-EC7A-1158-3520-5FE478EAC4C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3101731" y="2246924"/>
+          <a:ext cx="1162538" cy="307730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>170961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>17096</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>92807</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C28E3C-172D-43CD-8A82-993DE4359538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1409,7 +4315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2E5DE-9FC3-4DAE-830D-6C406FD1E4A6}">
   <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -1421,11 +4327,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
@@ -1443,10 +4349,10 @@
       <c r="F3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="41" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -1458,27 +4364,27 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="15">
         <v>0</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="16">
         <v>0</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="17">
         <v>0</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="24">
         <f>(C4+4*D4+E4)/6</f>
         <v>0</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="38">
         <f>((E4-C4)/6)^2</f>
         <v>0</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="42" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -1490,27 +4396,27 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="18">
         <v>1</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="19">
         <v>2</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="20">
         <v>3</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="25">
         <f t="shared" ref="F5:F19" si="0">(C5+4*D5+E5)/6</f>
         <v>2</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="39">
         <f t="shared" ref="G5:G19" si="1">((E5-C5)/6)^2</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="43" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -1521,27 +4427,27 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="18">
         <v>2</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="19">
         <v>3.5</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="20">
         <v>8</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="43" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -1553,27 +4459,27 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
         <v>6</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <v>9</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="20">
         <v>18</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="1">
@@ -1582,290 +4488,290 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>4</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <v>5.5</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="20">
         <v>10</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H8" s="46"/>
+      <c r="H8" s="43"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>1</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <v>4.5</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="20">
         <v>5</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="39">
         <f t="shared" si="1"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="43" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <v>4</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <v>4</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="20">
         <v>10</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="43" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>5</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <v>6.5</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="20">
         <v>11</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H11" s="46"/>
+      <c r="H11" s="43"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>5</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <v>8</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="20">
         <v>17</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="25">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>3</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="19">
         <v>7.5</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="20">
         <v>9</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H13" s="46"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>3</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <v>9</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="20">
         <v>9</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="43" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>4</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="19">
         <v>4</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="20">
         <v>4</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="46"/>
+      <c r="H15" s="43"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="18">
         <v>1</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="19">
         <v>5.5</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="20">
         <v>7</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="H16" s="43" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="18">
         <v>1</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="19">
         <v>2</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="20">
         <v>3</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="39">
         <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="H17" s="46"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="18">
         <v>5</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="19">
         <v>5.5</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="20">
         <v>9</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="39">
         <f t="shared" si="1"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="43" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="21">
         <v>0</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="22">
         <v>0</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="23">
         <v>0</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="44" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1874,7 +4780,7 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:H19">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$H4="*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1899,11 +4805,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
@@ -1933,450 +4839,450 @@
       <c r="J3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="30" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="15">
         <v>0</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="16">
         <v>0</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="17">
         <v>0</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="34">
         <f>(C4+4*D4+E4)/6</f>
         <v>0</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="29">
         <f>ROUND(G4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="16">
         <f>CEILING(G4,1)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="17">
         <f>FLOOR(G4,1)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="31">
         <f>((E4-C4)/6)^2</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="18">
         <v>1.5</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="19">
         <v>2</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="20">
         <v>15</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="35">
         <f t="shared" ref="F5:F15" si="0">(C5+4*D5+E5)/6</f>
         <v>4.083333333333333</v>
       </c>
       <c r="G5" s="3">
         <v>4.083333333333333</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="27">
         <f t="shared" ref="H5:H15" si="1">ROUND(G5,0)</f>
         <v>4</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="19">
         <f t="shared" ref="I5:I15" si="2">CEILING(G5,1)</f>
         <v>5</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="20">
         <f t="shared" ref="J5:J15" si="3">FLOOR(G5,1)</f>
         <v>4</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="32">
         <f t="shared" ref="K5:K15" si="4">((E5-C5)/6)^2</f>
         <v>5.0625</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="18">
         <v>2</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="19">
         <v>3.5</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="20">
         <v>21</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="35">
         <f t="shared" si="0"/>
         <v>6.166666666666667</v>
       </c>
       <c r="G6" s="3">
         <v>6.166666666666667</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="19">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="20">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="32">
         <f t="shared" si="4"/>
         <v>10.027777777777777</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <v>1.5</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="20">
         <v>18</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="35">
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
       <c r="G7" s="3">
         <v>4.166666666666667</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="27">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="19">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="20">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="32">
         <f t="shared" si="4"/>
         <v>8.0277777777777786</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>0.5</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <v>1</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="20">
         <v>15</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="35">
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
       <c r="G8" s="3">
         <v>3.25</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="19">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="20">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="32">
         <f t="shared" si="4"/>
         <v>5.8402777777777768</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>3</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <v>5</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="20">
         <v>24</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="35">
         <f t="shared" si="0"/>
         <v>7.833333333333333</v>
       </c>
       <c r="G9" s="3">
         <v>7.833333333333333</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="27">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="19">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="20">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="32">
         <f t="shared" si="4"/>
         <v>12.25</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <v>1</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <v>2</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="20">
         <v>16</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="35">
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
       <c r="G10" s="3">
         <v>4.166666666666667</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="27">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="19">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="20">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="32">
         <f t="shared" si="4"/>
         <v>6.25</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>0.5</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <v>1</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="20">
         <v>14</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="35">
         <f t="shared" si="0"/>
         <v>3.0833333333333335</v>
       </c>
       <c r="G11" s="3">
         <v>3.0833333333333335</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="19">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="20">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="32">
         <f t="shared" si="4"/>
         <v>5.0625</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>2.5</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <v>3.5</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="20">
         <v>25</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="35">
         <f t="shared" si="0"/>
         <v>6.916666666666667</v>
       </c>
       <c r="G12" s="3">
         <v>6.916666666666667</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="19">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="20">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="32">
         <f t="shared" si="4"/>
         <v>14.0625</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>1</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="19">
         <v>3</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="20">
         <v>18</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="35">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
       <c r="G13" s="3">
         <v>5.166666666666667</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="19">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="20">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="32">
         <f t="shared" si="4"/>
         <v>8.0277777777777786</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>2</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <v>3</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="20">
         <v>18</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="35">
         <f t="shared" si="0"/>
         <v>5.333333333333333</v>
       </c>
       <c r="G14" s="3">
         <v>5.333333333333333</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="19">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="20">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="32">
         <f t="shared" si="4"/>
         <v>7.1111111111111107</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="21">
         <v>0</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="22">
         <v>0</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="23">
         <v>0</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2389,4 +5295,725 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66C11E8-56A7-4FF3-A74D-D37F4C3D7A39}">
+  <dimension ref="A2:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>82</v>
+      </c>
+      <c r="E3" s="2">
+        <f>C3*D3</f>
+        <v>492</v>
+      </c>
+      <c r="F3" s="2">
+        <f>C3^2</f>
+        <v>36</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3^2</f>
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E9" si="0">C4*D4</f>
+        <v>172</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F9" si="1">C4^2</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G9" si="2">D4^2</f>
+        <v>7396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>645</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>666</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>696</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>90</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>78</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>624</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C10" s="2">
+        <f t="shared" ref="C10:G10" si="3">SUM(C3:C9)</f>
+        <v>57</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="3"/>
+        <v>511</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="3"/>
+        <v>3745</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="3"/>
+        <v>579</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
+        <v>38993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <f>COUNTA(B3:B9)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <f>(C12*E10 - C10*D10)/SQRT((C12*F10-C10^2)*(C12*G10-D10^2))</f>
+        <v>-0.94421517068791783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <f>CORREL(C3:C9,D3:D9)</f>
+        <v>-0.94421517068791805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <f>CORREL(D3:D9,C3:C9)</f>
+        <v>-0.94421517068791805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <f>(D10*F10-C10*E10)/(C12*F10-C10^2)</f>
+        <v>102.49253731343283</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <f>(C12*E10-C10*D10)/(C12*F10-C10^2)</f>
+        <v>-3.6218905472636815</v>
+      </c>
+      <c r="E17" s="2">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2">
+        <f>$C$18+$C$19*E17</f>
+        <v>62.651741293532332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <f>INTERCEPT(D3:D9,C3:C9)</f>
+        <v>102.49253731343283</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" ref="F18:F19" si="4">$C$18+$C$19*E18</f>
+        <v>77.139303482587053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <f>SLOPE(D3:D9,C3:C9)</f>
+        <v>-3.621890547263682</v>
+      </c>
+      <c r="E19" s="2">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="4"/>
+        <v>51.786069651741286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <f>C13^2</f>
+        <v>0.89154228855721385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB69BA6-4E8F-4C0A-B11A-7E2E47111252}">
+  <dimension ref="B2:O20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
+        <v>570</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2">
+        <v>525</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="50">
+        <v>0.98928820282730667</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2">
+        <v>670</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="50">
+        <v>0.97869114825328229</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D7" s="2">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2">
+        <v>490</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="50">
+        <v>0.95738229650656459</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G8" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="50">
+        <v>14.009087214635695</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>25</v>
+      </c>
+      <c r="E10" s="54">
+        <f>$H$18+$H$19*C10+$H$20*D10</f>
+        <v>581.43462523174719</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>21</v>
+      </c>
+      <c r="E11" s="54">
+        <f t="shared" ref="E11:E12" si="0">$H$18+$H$19*C11+$H$20*D11</f>
+        <v>505.77469762514352</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>25</v>
+      </c>
+      <c r="E12" s="54">
+        <f t="shared" si="0"/>
+        <v>528.85053412200932</v>
+      </c>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G13" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="50">
+        <v>2</v>
+      </c>
+      <c r="I13" s="50">
+        <v>18027.49095082546</v>
+      </c>
+      <c r="J13" s="50">
+        <v>9013.7454754127302</v>
+      </c>
+      <c r="K13" s="50">
+        <v>45.928854350588743</v>
+      </c>
+      <c r="L13" s="50">
+        <v>2.1308851746717622E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G14" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="50">
+        <v>2</v>
+      </c>
+      <c r="I14" s="50">
+        <v>392.50904917453863</v>
+      </c>
+      <c r="J14" s="50">
+        <v>196.25452458726932</v>
+      </c>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+    </row>
+    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G15" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="51">
+        <v>4</v>
+      </c>
+      <c r="I15" s="51">
+        <v>18420</v>
+      </c>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+    </row>
+    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="7:15" x14ac:dyDescent="0.35">
+      <c r="G17" s="52"/>
+      <c r="H17" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.35">
+      <c r="G18" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="50">
+        <v>-44.81018804626126</v>
+      </c>
+      <c r="I18" s="50">
+        <v>69.246866630890381</v>
+      </c>
+      <c r="J18" s="50">
+        <v>-0.64710780756499753</v>
+      </c>
+      <c r="K18" s="50">
+        <v>0.58391574508017841</v>
+      </c>
+      <c r="L18" s="50">
+        <v>-342.75540778225883</v>
+      </c>
+      <c r="M18" s="50">
+        <v>253.13503168973631</v>
+      </c>
+      <c r="N18" s="50">
+        <v>-342.75540778225883</v>
+      </c>
+      <c r="O18" s="50">
+        <v>253.13503168973631</v>
+      </c>
+    </row>
+    <row r="19" spans="7:15" x14ac:dyDescent="0.35">
+      <c r="G19" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="50">
+        <v>87.640151849563026</v>
+      </c>
+      <c r="I19" s="50">
+        <v>15.237186664924886</v>
+      </c>
+      <c r="J19" s="50">
+        <v>5.7517279125618073</v>
+      </c>
+      <c r="K19" s="50">
+        <v>2.8922600815111749E-2</v>
+      </c>
+      <c r="L19" s="50">
+        <v>22.079829052021836</v>
+      </c>
+      <c r="M19" s="50">
+        <v>153.20047464710422</v>
+      </c>
+      <c r="N19" s="50">
+        <v>22.079829052021836</v>
+      </c>
+      <c r="O19" s="50">
+        <v>153.20047464710422</v>
+      </c>
+    </row>
+    <row r="20" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G20" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="51">
+        <v>14.532974309172776</v>
+      </c>
+      <c r="I20" s="51">
+        <v>2.9137375361504319</v>
+      </c>
+      <c r="J20" s="51">
+        <v>4.9877431061870565</v>
+      </c>
+      <c r="K20" s="51">
+        <v>3.7924876930238542E-2</v>
+      </c>
+      <c r="L20" s="51">
+        <v>1.9961735454816427</v>
+      </c>
+      <c r="M20" s="51">
+        <v>27.069775072863909</v>
+      </c>
+      <c r="N20" s="51">
+        <v>1.9961735454816427</v>
+      </c>
+      <c r="O20" s="51">
+        <v>27.069775072863909</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Classwork Excel_SS_JT-2.xlsx
+++ b/Classwork Excel_SS_JT-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 Corporate Training\Six Sigma JT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAFE54F-5676-4BC9-A692-8AF2A058F50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C196AF0-425E-4606-8A74-E3297E1F90A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{112797AB-B162-4C1F-9432-D0A301332D8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{112797AB-B162-4C1F-9432-D0A301332D8E}"/>
   </bookViews>
   <sheets>
     <sheet name="PERT-CPM-1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
   <si>
     <t>Activity</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>(y - y')^2</t>
   </si>
 </sst>
 </file>
@@ -303,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -755,10 +758,52 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -767,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -880,21 +925,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2301,7 +2370,7 @@
           <c:x val="0.66969679161949369"/>
           <c:y val="0.27107217303267667"/>
           <c:w val="0.31172256019873978"/>
-          <c:h val="0.70071839800346913"/>
+          <c:h val="0.69924692089931406"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3803,7 +3872,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>532631</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>63375</xdr:rowOff>
+      <xdr:rowOff>58084</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3888,7 +3957,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>600291</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>131884</xdr:rowOff>
+      <xdr:rowOff>131885</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3978,13 +4047,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>175846</xdr:colOff>
+      <xdr:colOff>149386</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>170961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>17096</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>599177</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>92807</xdr:rowOff>
     </xdr:to>
@@ -5299,59 +5368,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66C11E8-56A7-4FF3-A74D-D37F4C3D7A39}">
-  <dimension ref="A2:G20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="48" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="58">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="58">
         <v>82</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="58">
         <f>C3*D3</f>
         <v>492</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="58">
         <f>C3^2</f>
         <v>36</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="59">
         <f>D3^2</f>
         <v>6724</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
@@ -5368,13 +5436,13 @@
         <f t="shared" ref="F4:F9" si="1">C4^2</f>
         <v>4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="55">
         <f t="shared" ref="G4:G9" si="2">D4^2</f>
         <v>7396</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
@@ -5391,13 +5459,13 @@
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="55">
         <f t="shared" si="2"/>
         <v>1849</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
@@ -5414,13 +5482,13 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="55">
         <f t="shared" si="2"/>
         <v>5476</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2">
@@ -5437,13 +5505,13 @@
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="55">
         <f t="shared" si="2"/>
         <v>3364</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2">
@@ -5460,58 +5528,58 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="55">
         <f t="shared" si="2"/>
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="56">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="56">
         <v>78</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="56">
         <f t="shared" si="0"/>
         <v>624</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="56">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="57">
         <f t="shared" si="2"/>
         <v>6084</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C10" s="2">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="74">
         <f t="shared" ref="C10:G10" si="3">SUM(C3:C9)</f>
         <v>57</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="75">
         <f t="shared" si="3"/>
         <v>511</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="75">
         <f t="shared" si="3"/>
         <v>3745</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="75">
         <f t="shared" si="3"/>
         <v>579</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="76">
         <f t="shared" si="3"/>
         <v>38993</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="48" t="s">
         <v>41</v>
       </c>
       <c r="C12">
@@ -5520,7 +5588,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="48" t="s">
         <v>42</v>
       </c>
       <c r="C13">
@@ -5529,7 +5597,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="48" t="s">
         <v>42</v>
       </c>
       <c r="C14">
@@ -5537,8 +5605,8 @@
         <v>-0.94421517068791805</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="49" t="s">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="48" t="s">
         <v>42</v>
       </c>
       <c r="C15">
@@ -5546,21 +5614,21 @@
         <v>-0.94421517068791805</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C16">
         <f>(D10*F10-C10*E10)/(C12*F10-C10^2)</f>
         <v>102.49253731343283</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5568,17 +5636,17 @@
       <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C17">
         <f>(C12*E10-C10*D10)/(C12*F10-C10^2)</f>
         <v>-3.6218905472636815</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="61">
         <v>11</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="59">
         <f>$C$18+$C$19*E17</f>
         <v>62.651741293532332</v>
       </c>
@@ -5587,42 +5655,42 @@
       <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C18">
         <f>INTERCEPT(D3:D9,C3:C9)</f>
         <v>102.49253731343283</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="62">
         <v>7</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="55">
         <f t="shared" ref="F18:F19" si="4">$C$18+$C$19*E18</f>
         <v>77.139303482587053</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C19">
         <f>SLOPE(D3:D9,C3:C9)</f>
         <v>-3.621890547263682</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="63">
         <v>14</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="57">
         <f t="shared" si="4"/>
         <v>51.786069651741286</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="48" t="s">
         <v>48</v>
       </c>
       <c r="C20">
@@ -5639,377 +5707,435 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB69BA6-4E8F-4C0A-B11A-7E2E47111252}">
-  <dimension ref="B2:O20"/>
+  <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.7265625" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="48" t="s">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="61">
         <v>3.2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="58">
         <v>22</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="59">
         <v>550</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+      <c r="F3" s="65">
+        <f>$J$18+$J$19*C3+$J$20*D3</f>
+        <v>555.36373267414149</v>
+      </c>
+      <c r="G3" s="68">
+        <f>(E3-F3)^2</f>
+        <v>28.769628199652999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="62">
         <v>2.7</v>
       </c>
       <c r="D4" s="2">
         <v>27</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="55">
         <v>570</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="F4" s="66">
+        <f t="shared" ref="F4:F7" si="0">$J$18+$J$19*C4+$J$20*D4</f>
+        <v>584.20852829522391</v>
+      </c>
+      <c r="G4" s="69">
+        <f t="shared" ref="G4:G7" si="1">(E4-F4)^2</f>
+        <v>201.88227631617858</v>
+      </c>
+      <c r="I4" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="53"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="19" t="s">
+      <c r="J4" s="52"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="62">
         <v>2.5</v>
       </c>
       <c r="D5" s="2">
         <v>24</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="55">
         <v>525</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="F5" s="66">
+        <f t="shared" si="0"/>
+        <v>523.08157499779293</v>
+      </c>
+      <c r="G5" s="69">
+        <f t="shared" si="1"/>
+        <v>3.6803544890932072</v>
+      </c>
+      <c r="I5" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="50">
+      <c r="J5" s="49">
         <v>0.98928820282730667</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="62">
         <v>3.4</v>
       </c>
       <c r="D6" s="2">
         <v>28</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="55">
         <v>670</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="F6" s="66">
+        <f t="shared" si="0"/>
+        <v>660.08960889909076</v>
+      </c>
+      <c r="G6" s="69">
+        <f t="shared" si="1"/>
+        <v>98.215851772980997</v>
+      </c>
+      <c r="I6" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="50">
+      <c r="J6" s="49">
         <v>0.97869114825328229</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="63">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="56">
         <v>23</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="57">
         <v>490</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="F7" s="67">
+        <f t="shared" si="0"/>
+        <v>482.25655513375125</v>
+      </c>
+      <c r="G7" s="70">
+        <f t="shared" si="1"/>
+        <v>59.960938396634141</v>
+      </c>
+      <c r="I7" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="50">
+      <c r="J7" s="49">
         <v>0.95738229650656459</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G8" s="50" t="s">
+    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G8" s="60">
+        <f>SUM(G3:G7)</f>
+        <v>392.50904917453994</v>
+      </c>
+      <c r="I8" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="50">
+      <c r="J8" s="49">
         <v>14.009087214635695</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="48" t="s">
+    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="I9" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="51">
+      <c r="J9" s="50">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C10" s="2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C10" s="61">
         <v>3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="59">
         <v>25</v>
       </c>
-      <c r="E10" s="54">
-        <f>$H$18+$H$19*C10+$H$20*D10</f>
+      <c r="E10" s="71">
+        <f>$J$18+$J$19*C10+$J$20*D10</f>
         <v>581.43462523174719</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="2">
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+    </row>
+    <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="62">
         <v>2.8</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="55">
         <v>21</v>
       </c>
-      <c r="E11" s="54">
-        <f t="shared" ref="E11:E12" si="0">$H$18+$H$19*C11+$H$20*D11</f>
+      <c r="E11" s="72">
+        <f t="shared" ref="E11:E12" si="2">$J$18+$J$19*C11+$J$20*D11</f>
         <v>505.77469762514352</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="I11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="2">
+    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="63">
         <v>2.4</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="57">
         <v>25</v>
       </c>
-      <c r="E12" s="54">
-        <f t="shared" si="0"/>
+      <c r="E12" s="73">
+        <f t="shared" si="2"/>
         <v>528.85053412200932</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52" t="s">
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="K12" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="52" t="s">
+      <c r="L12" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="52" t="s">
+      <c r="M12" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="52" t="s">
+      <c r="N12" s="51" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G13" s="50" t="s">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I13" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="50">
+      <c r="J13" s="49">
         <v>2</v>
       </c>
-      <c r="I13" s="50">
+      <c r="K13" s="49">
         <v>18027.49095082546</v>
       </c>
-      <c r="J13" s="50">
+      <c r="L13" s="49">
         <v>9013.7454754127302</v>
       </c>
-      <c r="K13" s="50">
+      <c r="M13" s="49">
         <v>45.928854350588743</v>
       </c>
-      <c r="L13" s="50">
+      <c r="N13" s="49">
         <v>2.1308851746717622E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G14" s="50" t="s">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I14" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="50">
+      <c r="J14" s="49">
         <v>2</v>
       </c>
-      <c r="I14" s="50">
+      <c r="K14" s="49">
         <v>392.50904917453863</v>
       </c>
-      <c r="J14" s="50">
+      <c r="L14" s="49">
         <v>196.25452458726932</v>
       </c>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-    </row>
-    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G15" s="51" t="s">
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+    </row>
+    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I15" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="51">
+      <c r="J15" s="50">
         <v>4</v>
       </c>
-      <c r="I15" s="51">
+      <c r="K15" s="50">
         <v>18420</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-    </row>
-    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="7:15" x14ac:dyDescent="0.35">
-      <c r="G17" s="52"/>
-      <c r="H17" s="52" t="s">
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+    </row>
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="I17" s="51"/>
+      <c r="J17" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="52" t="s">
+      <c r="K17" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="52" t="s">
+      <c r="L17" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="52" t="s">
+      <c r="M17" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="52" t="s">
+      <c r="N17" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="52" t="s">
+      <c r="O17" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="N17" s="52" t="s">
+      <c r="P17" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="O17" s="52" t="s">
+      <c r="Q17" s="51" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="7:15" x14ac:dyDescent="0.35">
-      <c r="G18" s="50" t="s">
+    <row r="18" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="I18" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="50">
+      <c r="J18" s="49">
         <v>-44.81018804626126</v>
       </c>
-      <c r="I18" s="50">
+      <c r="K18" s="49">
         <v>69.246866630890381</v>
       </c>
-      <c r="J18" s="50">
+      <c r="L18" s="49">
         <v>-0.64710780756499753</v>
       </c>
-      <c r="K18" s="50">
+      <c r="M18" s="49">
         <v>0.58391574508017841</v>
       </c>
-      <c r="L18" s="50">
+      <c r="N18" s="49">
         <v>-342.75540778225883</v>
       </c>
-      <c r="M18" s="50">
+      <c r="O18" s="49">
         <v>253.13503168973631</v>
       </c>
-      <c r="N18" s="50">
+      <c r="P18" s="49">
         <v>-342.75540778225883</v>
       </c>
-      <c r="O18" s="50">
+      <c r="Q18" s="49">
         <v>253.13503168973631</v>
       </c>
     </row>
-    <row r="19" spans="7:15" x14ac:dyDescent="0.35">
-      <c r="G19" s="50" t="s">
+    <row r="19" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="I19" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="50">
+      <c r="J19" s="49">
         <v>87.640151849563026</v>
       </c>
-      <c r="I19" s="50">
+      <c r="K19" s="49">
         <v>15.237186664924886</v>
       </c>
-      <c r="J19" s="50">
+      <c r="L19" s="49">
         <v>5.7517279125618073</v>
       </c>
-      <c r="K19" s="50">
+      <c r="M19" s="49">
         <v>2.8922600815111749E-2</v>
       </c>
-      <c r="L19" s="50">
+      <c r="N19" s="49">
         <v>22.079829052021836</v>
       </c>
-      <c r="M19" s="50">
+      <c r="O19" s="49">
         <v>153.20047464710422</v>
       </c>
-      <c r="N19" s="50">
+      <c r="P19" s="49">
         <v>22.079829052021836</v>
       </c>
-      <c r="O19" s="50">
+      <c r="Q19" s="49">
         <v>153.20047464710422</v>
       </c>
     </row>
-    <row r="20" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G20" s="51" t="s">
+    <row r="20" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I20" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="51">
+      <c r="J20" s="50">
         <v>14.532974309172776</v>
       </c>
-      <c r="I20" s="51">
+      <c r="K20" s="50">
         <v>2.9137375361504319</v>
       </c>
-      <c r="J20" s="51">
+      <c r="L20" s="50">
         <v>4.9877431061870565</v>
       </c>
-      <c r="K20" s="51">
+      <c r="M20" s="50">
         <v>3.7924876930238542E-2</v>
       </c>
-      <c r="L20" s="51">
+      <c r="N20" s="50">
         <v>1.9961735454816427</v>
       </c>
-      <c r="M20" s="51">
+      <c r="O20" s="50">
         <v>27.069775072863909</v>
       </c>
-      <c r="N20" s="51">
+      <c r="P20" s="50">
         <v>1.9961735454816427</v>
       </c>
-      <c r="O20" s="51">
+      <c r="Q20" s="50">
         <v>27.069775072863909</v>
       </c>
     </row>

--- a/Classwork Excel_SS_JT-2.xlsx
+++ b/Classwork Excel_SS_JT-2.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 Corporate Training\Six Sigma JT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C196AF0-425E-4606-8A74-E3297E1F90A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEC515A-5BCF-49AE-97EF-80E1B42D9706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{112797AB-B162-4C1F-9432-D0A301332D8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="5" xr2:uid="{112797AB-B162-4C1F-9432-D0A301332D8E}"/>
   </bookViews>
   <sheets>
     <sheet name="PERT-CPM-1" sheetId="1" r:id="rId1"/>
     <sheet name="PERT-CPM-2" sheetId="2" r:id="rId2"/>
     <sheet name="Correlation &amp; Regression-1" sheetId="3" r:id="rId3"/>
     <sheet name="Correlation &amp; Regression-2" sheetId="4" r:id="rId4"/>
+    <sheet name="Descriptive Statistics" sheetId="5" r:id="rId5"/>
+    <sheet name="SQC-1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="133">
   <si>
     <t>Activity</t>
   </si>
@@ -264,6 +266,181 @@
   </si>
   <si>
     <t>(y - y')^2</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Largest(3)</t>
+  </si>
+  <si>
+    <t>Smallest(3)</t>
+  </si>
+  <si>
+    <t>1 15.85 16.02 15.83 15.93 15.91 0.19</t>
+  </si>
+  <si>
+    <t>2 16.12 16.00 15.85 16.01 15.99 0.27</t>
+  </si>
+  <si>
+    <t>3 16.00 15.91 15.94 15.83 15.92 0.17</t>
+  </si>
+  <si>
+    <t>4 16.20 15.85 15.74 15.93 15.93 0.46</t>
+  </si>
+  <si>
+    <t>5 15.74 15.86 16.21 16.10 15.98 0.47</t>
+  </si>
+  <si>
+    <t>6 15.94 16.01 16.14 16.03 16.03 0.20</t>
+  </si>
+  <si>
+    <t>7 15.75 16.21 16.01 15.86 15.96 0.46</t>
+  </si>
+  <si>
+    <t>8 15.82 15.94 16.02 15.94 15.93 0.20</t>
+  </si>
+  <si>
+    <t>9 16.04 15.98 15.83 15.98 15.96 0.21</t>
+  </si>
+  <si>
+    <t>10 15.64 15.86 15.94 15.89 15.83 0.30</t>
+  </si>
+  <si>
+    <t>11 16.11 16.00 16.01 15.82 15.99 0.29</t>
+  </si>
+  <si>
+    <t>12 15.72 15.85 16.12 16.15 15.96 0.43</t>
+  </si>
+  <si>
+    <t>13 15.85 15.76 15.74 15.98 15.83 0.24</t>
+  </si>
+  <si>
+    <t>14 15.73 15.84 15.96 16.10 15.91 0.37</t>
+  </si>
+  <si>
+    <t>15 16.20 16.01 16.10 15.89 16.05 0.31</t>
+  </si>
+  <si>
+    <t>16 16.12 16.08 15.83 15.94 15.99 0.29</t>
+  </si>
+  <si>
+    <t>17 16.01 15.93 15.81 15.68 15.86 0.33</t>
+  </si>
+  <si>
+    <t>18 15.78 16.04 16.11 16.12 16.01 0.34</t>
+  </si>
+  <si>
+    <t>19 15.84 15.92 16.05 16.12 15.98 0.28</t>
+  </si>
+  <si>
+    <t>20 15.92 16.09 16.12 15.93 16.02 0.20</t>
+  </si>
+  <si>
+    <t>21 16.11 16.02 16.00 15.88 16.00 0.23</t>
+  </si>
+  <si>
+    <t>22 15.98 15.82 15.89 15.89 15.90 0.16</t>
+  </si>
+  <si>
+    <t>23 16.05 15.73 15.73 15.93 15.86 0.32</t>
+  </si>
+  <si>
+    <t>24 16.01 16.01 15.89 15.86 15.94 0.15</t>
+  </si>
+  <si>
+    <t>25 16.08 15.78 15.92 15.98 15.94 0.30</t>
+  </si>
+  <si>
+    <t>Sample
+Number</t>
+  </si>
+  <si>
+    <t>(Bottle Volume in Ounces)</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>x-bar</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>x-bar-bar =</t>
+  </si>
+  <si>
+    <t>z =</t>
+  </si>
+  <si>
+    <t>sigma =</t>
+  </si>
+  <si>
+    <t>sigma-x-bar =</t>
+  </si>
+  <si>
+    <t>UCL =</t>
+  </si>
+  <si>
+    <t>LCL =</t>
+  </si>
+  <si>
+    <t>(#observations)</t>
+  </si>
+  <si>
+    <t>x-bar-bar</t>
+  </si>
+  <si>
+    <t>UCL</t>
+  </si>
+  <si>
+    <t>LCL</t>
   </si>
 </sst>
 </file>
@@ -273,7 +450,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +474,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Minion-Regular"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -306,7 +488,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -778,6 +960,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -808,11 +1020,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -949,21 +1342,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2443,6 +2977,931 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>x-bar Control Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>x-bar</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SQC-1'!$J$5:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15.907499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.995000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.977500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.9575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.9575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.8325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.985000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.8325</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.907500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.9925</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.8575</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.012499999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.982500000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.002499999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.942500000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.940000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B6B-4A97-B839-48861382647D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>x-bar-bar</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SQC-1'!$L$5:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B6B-4A97-B839-48861382647D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>UCL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SQC-1'!$M$5:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.156900000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2B6B-4A97-B839-48861382647D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LCL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SQC-1'!$N$5:$N$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.736900000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2B6B-4A97-B839-48861382647D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="755818672"/>
+        <c:axId val="755826160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="755818672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755826160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="755826160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755818672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2484,6 +3943,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3555,6 +5054,502 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4085,6 +6080,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA2027E1-D449-B47F-1518-5C952E97E07C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4388,21 +6424,21 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:11" ht="15" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1">
       <c r="C2" s="45" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="47"/>
     </row>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" ht="15" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
@@ -4432,7 +6468,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11">
       <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
@@ -4464,7 +6500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11">
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
@@ -4495,7 +6531,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11">
       <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
@@ -4527,7 +6563,7 @@
         <v>0.84134474606854304</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
@@ -4556,7 +6592,7 @@
         <v>0.84134474606854304</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11">
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
@@ -4579,7 +6615,7 @@
       </c>
       <c r="H8" s="43"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11">
       <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
@@ -4604,7 +6640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11">
       <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
@@ -4629,7 +6665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11">
       <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
@@ -4652,7 +6688,7 @@
       </c>
       <c r="H11" s="43"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11">
       <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
@@ -4675,7 +6711,7 @@
       </c>
       <c r="H12" s="43"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11">
       <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
@@ -4698,7 +6734,7 @@
       </c>
       <c r="H13" s="43"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11">
       <c r="B14" s="13" t="s">
         <v>10</v>
       </c>
@@ -4723,7 +6759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11">
       <c r="B15" s="13" t="s">
         <v>11</v>
       </c>
@@ -4746,7 +6782,7 @@
       </c>
       <c r="H15" s="43"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11">
       <c r="B16" s="13" t="s">
         <v>12</v>
       </c>
@@ -4771,7 +6807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8">
       <c r="B17" s="13" t="s">
         <v>13</v>
       </c>
@@ -4794,7 +6830,7 @@
       </c>
       <c r="H17" s="43"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8">
       <c r="B18" s="13" t="s">
         <v>14</v>
       </c>
@@ -4819,7 +6855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" ht="15" thickBot="1">
       <c r="B19" s="14" t="s">
         <v>16</v>
       </c>
@@ -4865,22 +6901,22 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:11" ht="15" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1">
       <c r="C2" s="45" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="47"/>
     </row>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" ht="15" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
@@ -4912,7 +6948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11">
       <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
@@ -4949,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11">
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
@@ -4986,7 +7022,7 @@
         <v>5.0625</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11">
       <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
@@ -5023,7 +7059,7 @@
         <v>10.027777777777777</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
@@ -5060,7 +7096,7 @@
         <v>8.0277777777777786</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11">
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
@@ -5097,7 +7133,7 @@
         <v>5.8402777777777768</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11">
       <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
@@ -5134,7 +7170,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11">
       <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
@@ -5171,7 +7207,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11">
       <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
@@ -5208,7 +7244,7 @@
         <v>5.0625</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11">
       <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
@@ -5245,7 +7281,7 @@
         <v>14.0625</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11">
       <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
@@ -5282,7 +7318,7 @@
         <v>8.0277777777777786</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11">
       <c r="B14" s="13" t="s">
         <v>10</v>
       </c>
@@ -5319,7 +7355,7 @@
         <v>7.1111111111111107</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" ht="15" thickBot="1">
       <c r="B15" s="14" t="s">
         <v>28</v>
       </c>
@@ -5372,10 +7408,10 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" thickBot="1"/>
+    <row r="2" spans="1:7" ht="15" thickBot="1">
       <c r="B2" s="7" t="s">
         <v>35</v>
       </c>
@@ -5395,7 +7431,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
@@ -5418,7 +7454,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
@@ -5441,7 +7477,7 @@
         <v>7396</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
@@ -5464,7 +7500,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
@@ -5487,7 +7523,7 @@
         <v>5476</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
@@ -5510,7 +7546,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
@@ -5533,7 +7569,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="15" thickBot="1">
       <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
@@ -5556,29 +7592,29 @@
         <v>6084</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="74">
+    <row r="10" spans="1:7" ht="15" thickBot="1">
+      <c r="C10" s="77">
         <f t="shared" ref="C10:G10" si="3">SUM(C3:C9)</f>
         <v>57</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="78">
         <f t="shared" si="3"/>
         <v>511</v>
       </c>
-      <c r="E10" s="75">
+      <c r="E10" s="78">
         <f t="shared" si="3"/>
         <v>3745</v>
       </c>
-      <c r="F10" s="75">
+      <c r="F10" s="78">
         <f t="shared" si="3"/>
         <v>579</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="79">
         <f t="shared" si="3"/>
         <v>38993</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="B12" s="48" t="s">
         <v>41</v>
       </c>
@@ -5587,7 +7623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="B13" s="48" t="s">
         <v>42</v>
       </c>
@@ -5596,7 +7632,7 @@
         <v>-0.94421517068791783</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="B14" s="48" t="s">
         <v>42</v>
       </c>
@@ -5605,7 +7641,7 @@
         <v>-0.94421517068791805</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="15" thickBot="1">
       <c r="B15" s="48" t="s">
         <v>42</v>
       </c>
@@ -5614,7 +7650,7 @@
         <v>-0.94421517068791805</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="15" thickBot="1">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -5632,7 +7668,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -5651,7 +7687,7 @@
         <v>62.651741293532332</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -5670,7 +7706,7 @@
         <v>77.139303482587053</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="15" thickBot="1">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -5689,7 +7725,7 @@
         <v>51.786069651741286</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6">
       <c r="B20" s="48" t="s">
         <v>48</v>
       </c>
@@ -5709,9 +7745,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB69BA6-4E8F-4C0A-B11A-7E2E47111252}">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.7265625" customWidth="1"/>
@@ -5726,8 +7764,8 @@
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" ht="15" thickBot="1"/>
+    <row r="2" spans="2:14" ht="15" thickBot="1">
       <c r="B2" s="10" t="s">
         <v>35</v>
       </c>
@@ -5750,7 +7788,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" ht="15" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
@@ -5772,7 +7810,7 @@
         <v>28.769628199652999</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14">
       <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
@@ -5798,7 +7836,7 @@
       </c>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14">
       <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
@@ -5826,7 +7864,7 @@
         <v>0.98928820282730667</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14">
       <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
@@ -5854,7 +7892,7 @@
         <v>0.97869114825328229</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:14" ht="15" thickBot="1">
       <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
@@ -5882,7 +7920,7 @@
         <v>0.95738229650656459</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:14" ht="15" thickBot="1">
       <c r="G8" s="60">
         <f>SUM(G3:G7)</f>
         <v>392.50904917453994</v>
@@ -5894,7 +7932,7 @@
         <v>14.009087214635695</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:14" ht="15" thickBot="1">
       <c r="C9" s="7" t="s">
         <v>49</v>
       </c>
@@ -5913,28 +7951,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14">
       <c r="C10" s="61">
         <v>3</v>
       </c>
       <c r="D10" s="59">
         <v>25</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="74">
         <f>$J$18+$J$19*C10+$J$20*D10</f>
         <v>581.43462523174719</v>
       </c>
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
     </row>
-    <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:14" ht="15" thickBot="1">
       <c r="C11" s="62">
         <v>2.8</v>
       </c>
       <c r="D11" s="55">
         <v>21</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="75">
         <f t="shared" ref="E11:E12" si="2">$J$18+$J$19*C11+$J$20*D11</f>
         <v>505.77469762514352</v>
       </c>
@@ -5944,14 +7982,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:14" ht="15" thickBot="1">
       <c r="C12" s="63">
         <v>2.4</v>
       </c>
       <c r="D12" s="57">
         <v>25</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="76">
         <f t="shared" si="2"/>
         <v>528.85053412200932</v>
       </c>
@@ -5974,7 +8012,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14">
       <c r="I13" s="49" t="s">
         <v>60</v>
       </c>
@@ -5994,7 +8032,7 @@
         <v>2.1308851746717622E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14">
       <c r="I14" s="49" t="s">
         <v>61</v>
       </c>
@@ -6010,7 +8048,7 @@
       <c r="M14" s="49"/>
       <c r="N14" s="49"/>
     </row>
-    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:14" ht="15" thickBot="1">
       <c r="I15" s="50" t="s">
         <v>62</v>
       </c>
@@ -6024,8 +8062,8 @@
       <c r="M15" s="50"/>
       <c r="N15" s="50"/>
     </row>
-    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="9:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" ht="15" thickBot="1"/>
+    <row r="17" spans="9:17">
       <c r="I17" s="51"/>
       <c r="J17" s="51" t="s">
         <v>67</v>
@@ -6052,7 +8090,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:17">
       <c r="I18" s="49" t="s">
         <v>44</v>
       </c>
@@ -6081,7 +8119,7 @@
         <v>253.13503168973631</v>
       </c>
     </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:17">
       <c r="I19" s="49" t="s">
         <v>49</v>
       </c>
@@ -6110,7 +8148,7 @@
         <v>153.20047464710422</v>
       </c>
     </row>
-    <row r="20" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="9:17" ht="15" thickBot="1">
       <c r="I20" s="50" t="s">
         <v>50</v>
       </c>
@@ -6142,4 +8180,1802 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08551E61-1CCB-4A74-A051-4EBEFBF33E6F}">
+  <dimension ref="B1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15" thickBot="1"/>
+    <row r="2" spans="2:14">
+      <c r="B2">
+        <v>144</v>
+      </c>
+      <c r="C2">
+        <v>213</v>
+      </c>
+      <c r="D2">
+        <v>191</v>
+      </c>
+      <c r="E2">
+        <v>347</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="51"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3">
+        <v>227</v>
+      </c>
+      <c r="C3">
+        <v>361</v>
+      </c>
+      <c r="D3">
+        <v>185</v>
+      </c>
+      <c r="E3">
+        <v>366</v>
+      </c>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4">
+        <v>165</v>
+      </c>
+      <c r="C4">
+        <v>469</v>
+      </c>
+      <c r="D4">
+        <v>373</v>
+      </c>
+      <c r="E4">
+        <v>361</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="49">
+        <v>238.53333333333333</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="49">
+        <v>317.46666666666664</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="49">
+        <v>261.13333333333333</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="49">
+        <v>306.13333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5">
+        <v>179</v>
+      </c>
+      <c r="C5">
+        <v>215</v>
+      </c>
+      <c r="D5">
+        <v>106</v>
+      </c>
+      <c r="E5">
+        <v>104</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="49">
+        <v>22.381937161718394</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="49">
+        <v>30.780461747622073</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="49">
+        <v>28.951826435792505</v>
+      </c>
+      <c r="M5" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="49">
+        <v>30.853704981916053</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6">
+        <v>356</v>
+      </c>
+      <c r="C6">
+        <v>135</v>
+      </c>
+      <c r="D6">
+        <v>381</v>
+      </c>
+      <c r="E6">
+        <v>285</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="49">
+        <v>225</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="49">
+        <v>329</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="49">
+        <v>267</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="49">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7">
+        <v>298</v>
+      </c>
+      <c r="C7">
+        <v>337</v>
+      </c>
+      <c r="D7">
+        <v>470</v>
+      </c>
+      <c r="E7">
+        <v>264</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M7" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="49" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8">
+        <v>274</v>
+      </c>
+      <c r="C8">
+        <v>292</v>
+      </c>
+      <c r="D8">
+        <v>130</v>
+      </c>
+      <c r="E8">
+        <v>394</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="49">
+        <v>86.684869883196242</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="49">
+        <v>119.21221573711473</v>
+      </c>
+      <c r="K8" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="49">
+        <v>112.12994162811201</v>
+      </c>
+      <c r="M8" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="49">
+        <v>119.49588556375768</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9">
+        <v>297</v>
+      </c>
+      <c r="C9">
+        <v>487</v>
+      </c>
+      <c r="D9">
+        <v>342</v>
+      </c>
+      <c r="E9">
+        <v>223</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="49">
+        <v>7514.2666666666628</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="49">
+        <v>14211.552380952386</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="49">
+        <v>12573.123809523806</v>
+      </c>
+      <c r="M9" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="49">
+        <v>14279.266666666672</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10">
+        <v>225</v>
+      </c>
+      <c r="C10">
+        <v>440</v>
+      </c>
+      <c r="D10">
+        <v>267</v>
+      </c>
+      <c r="E10">
+        <v>471</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="49">
+        <v>-0.7899378376174071</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="49">
+        <v>-1.2527535054557899</v>
+      </c>
+      <c r="K10" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="49">
+        <v>-1.056473138973657</v>
+      </c>
+      <c r="M10" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="49">
+        <v>-1.1032291324610117</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11">
+        <v>204</v>
+      </c>
+      <c r="C11">
+        <v>169</v>
+      </c>
+      <c r="D11">
+        <v>188</v>
+      </c>
+      <c r="E11">
+        <v>160</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="49">
+        <v>0.45513888860300877</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="49">
+        <v>0.15120606401412007</v>
+      </c>
+      <c r="K11" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="49">
+        <v>0.1967323736627021</v>
+      </c>
+      <c r="M11" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="49">
+        <v>-0.19681787278714319</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12">
+        <v>157</v>
+      </c>
+      <c r="C12">
+        <v>498</v>
+      </c>
+      <c r="D12">
+        <v>304</v>
+      </c>
+      <c r="E12">
+        <v>435</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="49">
+        <v>293</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="49">
+        <v>363</v>
+      </c>
+      <c r="K12" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="49">
+        <v>364</v>
+      </c>
+      <c r="M12" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="49">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13">
+        <v>111</v>
+      </c>
+      <c r="C13">
+        <v>223</v>
+      </c>
+      <c r="D13">
+        <v>113</v>
+      </c>
+      <c r="E13">
+        <v>480</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="49">
+        <v>111</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="49">
+        <v>135</v>
+      </c>
+      <c r="K13" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="49">
+        <v>106</v>
+      </c>
+      <c r="M13" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="49">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14">
+        <v>192</v>
+      </c>
+      <c r="C14">
+        <v>368</v>
+      </c>
+      <c r="D14">
+        <v>193</v>
+      </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="49">
+        <v>404</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="49">
+        <v>498</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="49">
+        <v>470</v>
+      </c>
+      <c r="M14" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" s="49">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15">
+        <v>345</v>
+      </c>
+      <c r="C15">
+        <v>226</v>
+      </c>
+      <c r="D15">
+        <v>366</v>
+      </c>
+      <c r="E15">
+        <v>354</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="49">
+        <v>3578</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="49">
+        <v>4762</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="49">
+        <v>3917</v>
+      </c>
+      <c r="M15" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="49">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16">
+        <v>404</v>
+      </c>
+      <c r="C16">
+        <v>329</v>
+      </c>
+      <c r="D16">
+        <v>308</v>
+      </c>
+      <c r="E16">
+        <v>148</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="49">
+        <v>15</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="49">
+        <v>15</v>
+      </c>
+      <c r="K16" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="49">
+        <v>15</v>
+      </c>
+      <c r="M16" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" s="49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14">
+      <c r="G17" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="49">
+        <v>345</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="49">
+        <v>469</v>
+      </c>
+      <c r="K17" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="49">
+        <v>373</v>
+      </c>
+      <c r="M17" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="49">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14" ht="15" thickBot="1">
+      <c r="G18" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="50">
+        <v>157</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="50">
+        <v>213</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="50">
+        <v>130</v>
+      </c>
+      <c r="M18" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="50">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E44437-619C-46DD-BB4E-DEAAB352BBDB}">
+  <dimension ref="C1:N38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:14" ht="15" thickBot="1"/>
+    <row r="2" spans="3:14" ht="15" thickBot="1">
+      <c r="E2" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="116" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" s="85" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14" ht="14.5" customHeight="1" thickBot="1">
+      <c r="E3" s="91"/>
+      <c r="F3" s="122" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="86"/>
+    </row>
+    <row r="4" spans="3:14" ht="15" thickBot="1">
+      <c r="E4" s="92"/>
+      <c r="F4" s="129">
+        <v>1</v>
+      </c>
+      <c r="G4" s="130">
+        <v>2</v>
+      </c>
+      <c r="H4" s="130">
+        <v>3</v>
+      </c>
+      <c r="I4" s="131">
+        <v>4</v>
+      </c>
+      <c r="J4" s="125" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="126" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="118"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="89"/>
+    </row>
+    <row r="5" spans="3:14">
+      <c r="C5" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="93">
+        <v>1</v>
+      </c>
+      <c r="F5" s="101">
+        <v>15.85</v>
+      </c>
+      <c r="G5" s="88">
+        <v>16.02</v>
+      </c>
+      <c r="H5" s="88">
+        <v>15.83</v>
+      </c>
+      <c r="I5" s="102">
+        <v>15.93</v>
+      </c>
+      <c r="J5" s="96">
+        <f>AVERAGE(F5:I5)</f>
+        <v>15.907499999999999</v>
+      </c>
+      <c r="K5" s="113">
+        <f>MAX(F5:I5)-MIN(F5:I5)</f>
+        <v>0.1899999999999995</v>
+      </c>
+      <c r="L5" s="119">
+        <f t="shared" ref="L5:L29" si="0">$F$33</f>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M5" s="110">
+        <f t="shared" ref="M5:M29" si="1">$F$37</f>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N5" s="73">
+        <f t="shared" ref="N5:N29" si="2">$F$38</f>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14">
+      <c r="C6" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="94">
+        <v>2</v>
+      </c>
+      <c r="F6" s="103">
+        <v>16.12</v>
+      </c>
+      <c r="G6" s="81">
+        <v>16</v>
+      </c>
+      <c r="H6" s="81">
+        <v>15.85</v>
+      </c>
+      <c r="I6" s="104">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="J6" s="97">
+        <f t="shared" ref="J6:J29" si="3">AVERAGE(F6:I6)</f>
+        <v>15.995000000000001</v>
+      </c>
+      <c r="K6" s="114">
+        <f t="shared" ref="K6:K29" si="4">MAX(F6:I6)-MIN(F6:I6)</f>
+        <v>0.27000000000000135</v>
+      </c>
+      <c r="L6" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M6" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N6" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14">
+      <c r="C7" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="94">
+        <v>3</v>
+      </c>
+      <c r="F7" s="103">
+        <v>16</v>
+      </c>
+      <c r="G7" s="81">
+        <v>15.91</v>
+      </c>
+      <c r="H7" s="81">
+        <v>15.94</v>
+      </c>
+      <c r="I7" s="104">
+        <v>15.83</v>
+      </c>
+      <c r="J7" s="97">
+        <f t="shared" si="3"/>
+        <v>15.92</v>
+      </c>
+      <c r="K7" s="114">
+        <f t="shared" si="4"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="L7" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M7" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N7" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14">
+      <c r="C8" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="94">
+        <v>4</v>
+      </c>
+      <c r="F8" s="103">
+        <v>16.2</v>
+      </c>
+      <c r="G8" s="81">
+        <v>15.85</v>
+      </c>
+      <c r="H8" s="81">
+        <v>15.74</v>
+      </c>
+      <c r="I8" s="104">
+        <v>15.93</v>
+      </c>
+      <c r="J8" s="97">
+        <f t="shared" si="3"/>
+        <v>15.93</v>
+      </c>
+      <c r="K8" s="114">
+        <f t="shared" si="4"/>
+        <v>0.45999999999999908</v>
+      </c>
+      <c r="L8" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M8" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N8" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14">
+      <c r="C9" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="94">
+        <v>5</v>
+      </c>
+      <c r="F9" s="103">
+        <v>15.74</v>
+      </c>
+      <c r="G9" s="81">
+        <v>15.86</v>
+      </c>
+      <c r="H9" s="81">
+        <v>16.21</v>
+      </c>
+      <c r="I9" s="104">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J9" s="97">
+        <f t="shared" si="3"/>
+        <v>15.977500000000001</v>
+      </c>
+      <c r="K9" s="114">
+        <f t="shared" si="4"/>
+        <v>0.47000000000000064</v>
+      </c>
+      <c r="L9" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M9" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N9" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14">
+      <c r="C10" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="94">
+        <v>6</v>
+      </c>
+      <c r="F10" s="103">
+        <v>15.94</v>
+      </c>
+      <c r="G10" s="81">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="H10" s="81">
+        <v>16.14</v>
+      </c>
+      <c r="I10" s="104">
+        <v>16.03</v>
+      </c>
+      <c r="J10" s="97">
+        <f t="shared" si="3"/>
+        <v>16.03</v>
+      </c>
+      <c r="K10" s="114">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="L10" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M10" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N10" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14">
+      <c r="C11" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="94">
+        <v>7</v>
+      </c>
+      <c r="F11" s="103">
+        <v>15.75</v>
+      </c>
+      <c r="G11" s="81">
+        <v>16.21</v>
+      </c>
+      <c r="H11" s="81">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="I11" s="104">
+        <v>15.86</v>
+      </c>
+      <c r="J11" s="97">
+        <f t="shared" si="3"/>
+        <v>15.9575</v>
+      </c>
+      <c r="K11" s="114">
+        <f t="shared" si="4"/>
+        <v>0.46000000000000085</v>
+      </c>
+      <c r="L11" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M11" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N11" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14">
+      <c r="C12" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="94">
+        <v>8</v>
+      </c>
+      <c r="F12" s="103">
+        <v>15.82</v>
+      </c>
+      <c r="G12" s="81">
+        <v>15.94</v>
+      </c>
+      <c r="H12" s="81">
+        <v>16.02</v>
+      </c>
+      <c r="I12" s="104">
+        <v>15.94</v>
+      </c>
+      <c r="J12" s="97">
+        <f t="shared" si="3"/>
+        <v>15.93</v>
+      </c>
+      <c r="K12" s="114">
+        <f t="shared" si="4"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="L12" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M12" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N12" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14">
+      <c r="C13" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="94">
+        <v>9</v>
+      </c>
+      <c r="F13" s="103">
+        <v>16.04</v>
+      </c>
+      <c r="G13" s="81">
+        <v>15.98</v>
+      </c>
+      <c r="H13" s="81">
+        <v>15.83</v>
+      </c>
+      <c r="I13" s="104">
+        <v>15.98</v>
+      </c>
+      <c r="J13" s="97">
+        <f t="shared" si="3"/>
+        <v>15.9575</v>
+      </c>
+      <c r="K13" s="114">
+        <f t="shared" si="4"/>
+        <v>0.20999999999999908</v>
+      </c>
+      <c r="L13" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M13" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N13" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14">
+      <c r="C14" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="94">
+        <v>10</v>
+      </c>
+      <c r="F14" s="103">
+        <v>15.64</v>
+      </c>
+      <c r="G14" s="81">
+        <v>15.86</v>
+      </c>
+      <c r="H14" s="81">
+        <v>15.94</v>
+      </c>
+      <c r="I14" s="104">
+        <v>15.89</v>
+      </c>
+      <c r="J14" s="97">
+        <f t="shared" si="3"/>
+        <v>15.8325</v>
+      </c>
+      <c r="K14" s="114">
+        <f t="shared" si="4"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="L14" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M14" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N14" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14">
+      <c r="C15" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="94">
+        <v>11</v>
+      </c>
+      <c r="F15" s="103">
+        <v>16.11</v>
+      </c>
+      <c r="G15" s="81">
+        <v>16</v>
+      </c>
+      <c r="H15" s="81">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="I15" s="104">
+        <v>15.82</v>
+      </c>
+      <c r="J15" s="97">
+        <f t="shared" si="3"/>
+        <v>15.985000000000001</v>
+      </c>
+      <c r="K15" s="114">
+        <f t="shared" si="4"/>
+        <v>0.28999999999999915</v>
+      </c>
+      <c r="L15" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M15" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N15" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14">
+      <c r="C16" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="94">
+        <v>12</v>
+      </c>
+      <c r="F16" s="103">
+        <v>15.72</v>
+      </c>
+      <c r="G16" s="81">
+        <v>15.85</v>
+      </c>
+      <c r="H16" s="81">
+        <v>16.12</v>
+      </c>
+      <c r="I16" s="104">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="J16" s="97">
+        <f t="shared" si="3"/>
+        <v>15.959999999999999</v>
+      </c>
+      <c r="K16" s="114">
+        <f t="shared" si="4"/>
+        <v>0.42999999999999794</v>
+      </c>
+      <c r="L16" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M16" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N16" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="C17" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="94">
+        <v>13</v>
+      </c>
+      <c r="F17" s="103">
+        <v>15.85</v>
+      </c>
+      <c r="G17" s="81">
+        <v>15.76</v>
+      </c>
+      <c r="H17" s="81">
+        <v>15.74</v>
+      </c>
+      <c r="I17" s="104">
+        <v>15.98</v>
+      </c>
+      <c r="J17" s="97">
+        <f t="shared" si="3"/>
+        <v>15.8325</v>
+      </c>
+      <c r="K17" s="114">
+        <f t="shared" si="4"/>
+        <v>0.24000000000000021</v>
+      </c>
+      <c r="L17" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M17" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N17" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="94">
+        <v>14</v>
+      </c>
+      <c r="F18" s="103">
+        <v>15.73</v>
+      </c>
+      <c r="G18" s="81">
+        <v>15.84</v>
+      </c>
+      <c r="H18" s="81">
+        <v>15.96</v>
+      </c>
+      <c r="I18" s="104">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J18" s="97">
+        <f t="shared" si="3"/>
+        <v>15.907500000000001</v>
+      </c>
+      <c r="K18" s="114">
+        <f t="shared" si="4"/>
+        <v>0.37000000000000099</v>
+      </c>
+      <c r="L18" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M18" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N18" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="94">
+        <v>15</v>
+      </c>
+      <c r="F19" s="103">
+        <v>16.2</v>
+      </c>
+      <c r="G19" s="81">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="H19" s="81">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I19" s="104">
+        <v>15.89</v>
+      </c>
+      <c r="J19" s="97">
+        <f t="shared" si="3"/>
+        <v>16.05</v>
+      </c>
+      <c r="K19" s="114">
+        <f t="shared" si="4"/>
+        <v>0.30999999999999872</v>
+      </c>
+      <c r="L19" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M19" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N19" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="94">
+        <v>16</v>
+      </c>
+      <c r="F20" s="103">
+        <v>16.12</v>
+      </c>
+      <c r="G20" s="81">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="H20" s="81">
+        <v>15.83</v>
+      </c>
+      <c r="I20" s="104">
+        <v>15.94</v>
+      </c>
+      <c r="J20" s="97">
+        <f t="shared" si="3"/>
+        <v>15.9925</v>
+      </c>
+      <c r="K20" s="114">
+        <f t="shared" si="4"/>
+        <v>0.29000000000000092</v>
+      </c>
+      <c r="L20" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M20" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N20" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="C21" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="94">
+        <v>17</v>
+      </c>
+      <c r="F21" s="103">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G21" s="81">
+        <v>15.93</v>
+      </c>
+      <c r="H21" s="81">
+        <v>15.81</v>
+      </c>
+      <c r="I21" s="104">
+        <v>15.68</v>
+      </c>
+      <c r="J21" s="97">
+        <f t="shared" si="3"/>
+        <v>15.8575</v>
+      </c>
+      <c r="K21" s="114">
+        <f t="shared" si="4"/>
+        <v>0.33000000000000185</v>
+      </c>
+      <c r="L21" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M21" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N21" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="94">
+        <v>18</v>
+      </c>
+      <c r="F22" s="103">
+        <v>15.78</v>
+      </c>
+      <c r="G22" s="81">
+        <v>16.04</v>
+      </c>
+      <c r="H22" s="81">
+        <v>16.11</v>
+      </c>
+      <c r="I22" s="104">
+        <v>16.12</v>
+      </c>
+      <c r="J22" s="97">
+        <f t="shared" si="3"/>
+        <v>16.012499999999999</v>
+      </c>
+      <c r="K22" s="114">
+        <f t="shared" si="4"/>
+        <v>0.34000000000000163</v>
+      </c>
+      <c r="L22" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M22" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N22" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="C23" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="94">
+        <v>19</v>
+      </c>
+      <c r="F23" s="103">
+        <v>15.84</v>
+      </c>
+      <c r="G23" s="81">
+        <v>15.92</v>
+      </c>
+      <c r="H23" s="81">
+        <v>16.05</v>
+      </c>
+      <c r="I23" s="104">
+        <v>16.12</v>
+      </c>
+      <c r="J23" s="97">
+        <f t="shared" si="3"/>
+        <v>15.982500000000002</v>
+      </c>
+      <c r="K23" s="114">
+        <f t="shared" si="4"/>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="L23" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M23" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N23" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="C24" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="94">
+        <v>20</v>
+      </c>
+      <c r="F24" s="103">
+        <v>15.92</v>
+      </c>
+      <c r="G24" s="81">
+        <v>16.09</v>
+      </c>
+      <c r="H24" s="81">
+        <v>16.12</v>
+      </c>
+      <c r="I24" s="104">
+        <v>15.93</v>
+      </c>
+      <c r="J24" s="97">
+        <f t="shared" si="3"/>
+        <v>16.015000000000001</v>
+      </c>
+      <c r="K24" s="114">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="L24" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M24" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N24" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="94">
+        <v>21</v>
+      </c>
+      <c r="F25" s="103">
+        <v>16.11</v>
+      </c>
+      <c r="G25" s="81">
+        <v>16.02</v>
+      </c>
+      <c r="H25" s="81">
+        <v>16</v>
+      </c>
+      <c r="I25" s="104">
+        <v>15.88</v>
+      </c>
+      <c r="J25" s="97">
+        <f t="shared" si="3"/>
+        <v>16.002499999999998</v>
+      </c>
+      <c r="K25" s="114">
+        <f t="shared" si="4"/>
+        <v>0.22999999999999865</v>
+      </c>
+      <c r="L25" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M25" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N25" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="C26" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="94">
+        <v>22</v>
+      </c>
+      <c r="F26" s="103">
+        <v>15.98</v>
+      </c>
+      <c r="G26" s="81">
+        <v>15.82</v>
+      </c>
+      <c r="H26" s="81">
+        <v>15.89</v>
+      </c>
+      <c r="I26" s="104">
+        <v>15.89</v>
+      </c>
+      <c r="J26" s="97">
+        <f t="shared" si="3"/>
+        <v>15.895</v>
+      </c>
+      <c r="K26" s="114">
+        <f t="shared" si="4"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="L26" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M26" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N26" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14">
+      <c r="C27" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="94">
+        <v>23</v>
+      </c>
+      <c r="F27" s="103">
+        <v>16.05</v>
+      </c>
+      <c r="G27" s="81">
+        <v>15.73</v>
+      </c>
+      <c r="H27" s="81">
+        <v>15.73</v>
+      </c>
+      <c r="I27" s="104">
+        <v>15.93</v>
+      </c>
+      <c r="J27" s="97">
+        <f t="shared" si="3"/>
+        <v>15.860000000000001</v>
+      </c>
+      <c r="K27" s="114">
+        <f t="shared" si="4"/>
+        <v>0.32000000000000028</v>
+      </c>
+      <c r="L27" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M27" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N27" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14">
+      <c r="C28" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="94">
+        <v>24</v>
+      </c>
+      <c r="F28" s="103">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G28" s="81">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="H28" s="81">
+        <v>15.89</v>
+      </c>
+      <c r="I28" s="104">
+        <v>15.86</v>
+      </c>
+      <c r="J28" s="97">
+        <f t="shared" si="3"/>
+        <v>15.942500000000001</v>
+      </c>
+      <c r="K28" s="114">
+        <f t="shared" si="4"/>
+        <v>0.15000000000000213</v>
+      </c>
+      <c r="L28" s="120">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M28" s="111">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N28" s="71">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="15" thickBot="1">
+      <c r="C29" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="95">
+        <v>25</v>
+      </c>
+      <c r="F29" s="105">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="G29" s="87">
+        <v>15.78</v>
+      </c>
+      <c r="H29" s="87">
+        <v>15.92</v>
+      </c>
+      <c r="I29" s="106">
+        <v>15.98</v>
+      </c>
+      <c r="J29" s="98">
+        <f t="shared" si="3"/>
+        <v>15.940000000000001</v>
+      </c>
+      <c r="K29" s="115">
+        <f t="shared" si="4"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="L29" s="121">
+        <f t="shared" si="0"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="M29" s="112">
+        <f t="shared" si="1"/>
+        <v>16.156900000000004</v>
+      </c>
+      <c r="N29" s="72">
+        <f t="shared" si="2"/>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14">
+      <c r="J30" s="83">
+        <f t="shared" ref="J30:K30" si="5">SUM(J5:J29)</f>
+        <v>398.67250000000007</v>
+      </c>
+      <c r="K30" s="83">
+        <f t="shared" si="5"/>
+        <v>7.1700000000000035</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14">
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32">
+        <f>COUNTA(F5:I5)</f>
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="82">
+        <f>AVERAGE(J5:J29)</f>
+        <v>15.946900000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="E34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36">
+        <f>F35/SQRT(F32)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="82">
+        <f>F33+F34*F36</f>
+        <v>16.156900000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6">
+      <c r="E38" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="82">
+        <f>F33-F34*F36</f>
+        <v>15.736900000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J5 J6:J29 K5:K29 F32" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>